--- a/test data/rerate2.xlsx
+++ b/test data/rerate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C5E774-B0EF-4440-AF38-A8C1CBE8DFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E34D05-7319-4F0B-8D72-8F3020A9A434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOMESTIC" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="294">
   <si>
     <t>TRKNGNBR</t>
   </si>
@@ -893,1681 +893,22 @@
     <t>44023</t>
   </si>
   <si>
-    <t>196558</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>609597747</t>
-  </si>
-  <si>
-    <t>176602</t>
-  </si>
-  <si>
-    <t>33338</t>
-  </si>
-  <si>
-    <t>199013</t>
-  </si>
-  <si>
-    <t>611309007</t>
-  </si>
-  <si>
-    <t>611309147</t>
-  </si>
-  <si>
-    <t>128295</t>
-  </si>
-  <si>
-    <t>600460005</t>
-  </si>
-  <si>
-    <t>125355</t>
-  </si>
-  <si>
-    <t>450421383</t>
-  </si>
-  <si>
-    <t>52384</t>
-  </si>
-  <si>
-    <t>199987941</t>
-  </si>
-  <si>
-    <t>112339</t>
-  </si>
-  <si>
-    <t>700073459</t>
-  </si>
-  <si>
-    <t>198736</t>
-  </si>
-  <si>
-    <t>605811540</t>
-  </si>
-  <si>
-    <t>126639</t>
-  </si>
-  <si>
-    <t>600652486</t>
-  </si>
-  <si>
-    <t>88406</t>
-  </si>
-  <si>
-    <t>450424188</t>
-  </si>
-  <si>
-    <t>126644</t>
-  </si>
-  <si>
-    <t>700229289</t>
-  </si>
-  <si>
-    <t>12464</t>
-  </si>
-  <si>
-    <t>700153703</t>
-  </si>
-  <si>
-    <t>52539</t>
-  </si>
-  <si>
-    <t>450414263</t>
-  </si>
-  <si>
-    <t>105963</t>
-  </si>
-  <si>
-    <t>450312398</t>
-  </si>
-  <si>
-    <t>126631</t>
-  </si>
-  <si>
     <t>105153</t>
   </si>
   <si>
     <t>450312851</t>
   </si>
   <si>
-    <t>94772</t>
-  </si>
-  <si>
-    <t>128599983</t>
-  </si>
-  <si>
-    <t>52532</t>
-  </si>
-  <si>
-    <t>106159</t>
-  </si>
-  <si>
-    <t>710204764</t>
-  </si>
-  <si>
-    <t>85298</t>
-  </si>
-  <si>
-    <t>113578238</t>
-  </si>
-  <si>
-    <t>201058</t>
-  </si>
-  <si>
-    <t>609966424</t>
-  </si>
-  <si>
-    <t>52382</t>
-  </si>
-  <si>
-    <t>612559902</t>
-  </si>
-  <si>
-    <t>105676</t>
-  </si>
-  <si>
-    <t>451143280</t>
-  </si>
-  <si>
-    <t>106174</t>
-  </si>
-  <si>
-    <t>710204780</t>
-  </si>
-  <si>
-    <t>112166</t>
-  </si>
-  <si>
-    <t>700075591</t>
-  </si>
-  <si>
-    <t>86689</t>
-  </si>
-  <si>
-    <t>51456</t>
-  </si>
-  <si>
-    <t>51959</t>
-  </si>
-  <si>
-    <t>51460</t>
-  </si>
-  <si>
-    <t>199987968</t>
-  </si>
-  <si>
-    <t>196544</t>
-  </si>
-  <si>
-    <t>609870788</t>
-  </si>
-  <si>
-    <t>196545</t>
-  </si>
-  <si>
-    <t>41123</t>
-  </si>
-  <si>
-    <t>196546</t>
-  </si>
-  <si>
-    <t>196547</t>
-  </si>
-  <si>
-    <t>196543</t>
-  </si>
-  <si>
-    <t>609845309</t>
-  </si>
-  <si>
-    <t>196482</t>
-  </si>
-  <si>
-    <t>610619401</t>
-  </si>
-  <si>
-    <t>196642</t>
-  </si>
-  <si>
-    <t>609824263</t>
-  </si>
-  <si>
-    <t>194881</t>
-  </si>
-  <si>
-    <t>196643</t>
-  </si>
-  <si>
-    <t>609824603</t>
-  </si>
-  <si>
-    <t>196644</t>
-  </si>
-  <si>
-    <t>609922222</t>
-  </si>
-  <si>
-    <t>196645</t>
-  </si>
-  <si>
-    <t>610619681</t>
-  </si>
-  <si>
-    <t>203212</t>
-  </si>
-  <si>
-    <t>609845589</t>
-  </si>
-  <si>
-    <t>196450</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>609919302</t>
-  </si>
-  <si>
-    <t>609909404</t>
-  </si>
-  <si>
-    <t>105292</t>
-  </si>
-  <si>
-    <t>610211682</t>
-  </si>
-  <si>
-    <t>196445</t>
-  </si>
-  <si>
-    <t>23123</t>
-  </si>
-  <si>
-    <t>196448</t>
-  </si>
-  <si>
-    <t>609918942</t>
-  </si>
-  <si>
-    <t>71102</t>
-  </si>
-  <si>
-    <t>450392014</t>
-  </si>
-  <si>
-    <t>88637</t>
-  </si>
-  <si>
-    <t>410559625</t>
-  </si>
-  <si>
-    <t>88496</t>
-  </si>
-  <si>
-    <t>103576</t>
-  </si>
-  <si>
-    <t>202893</t>
-  </si>
-  <si>
-    <t>609049006</t>
-  </si>
-  <si>
-    <t>202879</t>
-  </si>
-  <si>
-    <t>112087</t>
-  </si>
-  <si>
-    <t>126628</t>
-  </si>
-  <si>
-    <t>99121</t>
-  </si>
-  <si>
-    <t>451143425</t>
-  </si>
-  <si>
-    <t>106168</t>
-  </si>
-  <si>
-    <t>710204942</t>
-  </si>
-  <si>
-    <t>100037</t>
-  </si>
-  <si>
-    <t>128652868</t>
-  </si>
-  <si>
-    <t>126577</t>
-  </si>
-  <si>
-    <t>700136000</t>
-  </si>
-  <si>
-    <t>106163</t>
-  </si>
-  <si>
-    <t>710210543</t>
-  </si>
-  <si>
-    <t>106167</t>
-  </si>
-  <si>
-    <t>710204926</t>
-  </si>
-  <si>
-    <t>105264</t>
-  </si>
-  <si>
-    <t>450312657</t>
-  </si>
-  <si>
-    <t>201510</t>
-  </si>
-  <si>
-    <t>609920602</t>
-  </si>
-  <si>
-    <t>126610</t>
-  </si>
-  <si>
-    <t>201509</t>
-  </si>
-  <si>
-    <t>609920122</t>
-  </si>
-  <si>
-    <t>703782906</t>
-  </si>
-  <si>
-    <t>200164</t>
-  </si>
-  <si>
-    <t>609048786</t>
-  </si>
-  <si>
-    <t>106162</t>
-  </si>
-  <si>
-    <t>710210462</t>
-  </si>
-  <si>
-    <t>26314</t>
-  </si>
-  <si>
-    <t>410657724</t>
-  </si>
-  <si>
-    <t>52537</t>
-  </si>
-  <si>
-    <t>105265</t>
-  </si>
-  <si>
-    <t>105555</t>
-  </si>
-  <si>
-    <t>71088</t>
-  </si>
-  <si>
-    <t>51458</t>
-  </si>
-  <si>
-    <t>199987984</t>
-  </si>
-  <si>
-    <t>112371</t>
-  </si>
-  <si>
-    <t>52526</t>
-  </si>
-  <si>
-    <t>105962</t>
-  </si>
-  <si>
-    <t>196675</t>
-  </si>
-  <si>
-    <t>610462804</t>
-  </si>
-  <si>
-    <t>194905</t>
-  </si>
-  <si>
-    <t>609553723</t>
-  </si>
-  <si>
-    <t>198226</t>
-  </si>
-  <si>
-    <t>609831626</t>
-  </si>
-  <si>
-    <t>196673</t>
-  </si>
-  <si>
-    <t>196677</t>
-  </si>
-  <si>
-    <t>605390900</t>
-  </si>
-  <si>
-    <t>190260</t>
-  </si>
-  <si>
-    <t>608052348</t>
-  </si>
-  <si>
-    <t>196676</t>
-  </si>
-  <si>
-    <t>179903</t>
-  </si>
-  <si>
-    <t>603645120</t>
-  </si>
-  <si>
-    <t>196452</t>
-  </si>
-  <si>
-    <t>610618081</t>
-  </si>
-  <si>
-    <t>202483</t>
-  </si>
-  <si>
-    <t>199011</t>
-  </si>
-  <si>
-    <t>199012</t>
-  </si>
-  <si>
-    <t>199015</t>
-  </si>
-  <si>
-    <t>202482</t>
-  </si>
-  <si>
-    <t>196732</t>
-  </si>
-  <si>
-    <t>103314</t>
-  </si>
-  <si>
-    <t>196653</t>
-  </si>
-  <si>
-    <t>98512</t>
-  </si>
-  <si>
-    <t>99124</t>
-  </si>
-  <si>
-    <t>451143441</t>
-  </si>
-  <si>
-    <t>123898</t>
-  </si>
-  <si>
-    <t>113217782</t>
-  </si>
-  <si>
-    <t>12512</t>
-  </si>
-  <si>
-    <t>700677036</t>
-  </si>
-  <si>
-    <t>126570</t>
-  </si>
-  <si>
-    <t>600707540</t>
-  </si>
-  <si>
-    <t>700229149</t>
-  </si>
-  <si>
-    <t>126637</t>
-  </si>
-  <si>
-    <t>172239</t>
-  </si>
-  <si>
-    <t>177166</t>
-  </si>
-  <si>
-    <t>609871105</t>
-  </si>
-  <si>
-    <t>196446</t>
-  </si>
-  <si>
-    <t>701220552</t>
-  </si>
-  <si>
-    <t>71096</t>
-  </si>
-  <si>
-    <t>194873</t>
-  </si>
-  <si>
-    <t>203211</t>
-  </si>
-  <si>
-    <t>196605</t>
-  </si>
-  <si>
-    <t>201467</t>
-  </si>
-  <si>
-    <t>17360</t>
-  </si>
-  <si>
-    <t>71095</t>
-  </si>
-  <si>
-    <t>196674</t>
-  </si>
-  <si>
-    <t>198229</t>
-  </si>
-  <si>
-    <t>609846429</t>
-  </si>
-  <si>
-    <t>125217</t>
-  </si>
-  <si>
-    <t>410016885</t>
-  </si>
-  <si>
-    <t>196678</t>
-  </si>
-  <si>
-    <t>201057</t>
-  </si>
-  <si>
-    <t>605390820</t>
-  </si>
-  <si>
-    <t>100365</t>
-  </si>
-  <si>
-    <t>94105</t>
-  </si>
-  <si>
-    <t>450424226</t>
-  </si>
-  <si>
-    <t>51961</t>
-  </si>
-  <si>
-    <t>564310511277</t>
-  </si>
-  <si>
-    <t>594926081</t>
-  </si>
-  <si>
-    <t>L3C4-194881-1-99</t>
-  </si>
-  <si>
-    <t>763243600649</t>
-  </si>
-  <si>
-    <t>421442847</t>
-  </si>
-  <si>
-    <t>L3C4-26314-1-168</t>
-  </si>
-  <si>
-    <t>794955826808</t>
-  </si>
-  <si>
-    <t>421441206</t>
-  </si>
-  <si>
-    <t>L3C4-201467-1-145</t>
-  </si>
-  <si>
-    <t>572641048677</t>
-  </si>
-  <si>
-    <t>594926460</t>
-  </si>
-  <si>
-    <t>L3C4-196547-1-119</t>
-  </si>
-  <si>
-    <t>958843600641</t>
-  </si>
-  <si>
-    <t>421442689</t>
-  </si>
-  <si>
-    <t>L3C4-94772-1-215</t>
-  </si>
-  <si>
-    <t>572863647118</t>
-  </si>
-  <si>
-    <t>421441427</t>
-  </si>
-  <si>
-    <t>L3C4-126628-1-73</t>
-  </si>
-  <si>
-    <t>794955961445</t>
-  </si>
-  <si>
-    <t>421442198</t>
-  </si>
-  <si>
-    <t>L3C4-196448-2-107</t>
-  </si>
-  <si>
-    <t>794955133719</t>
-  </si>
-  <si>
-    <t>421441116</t>
-  </si>
-  <si>
-    <t>L3C4-198736-1-140</t>
-  </si>
-  <si>
-    <t>794956353848</t>
-  </si>
-  <si>
-    <t>594926077</t>
-  </si>
-  <si>
-    <t>L3C4-194873-1-98</t>
-  </si>
-  <si>
-    <t>572248476557</t>
-  </si>
-  <si>
-    <t>063420030245</t>
-  </si>
-  <si>
-    <t>594924959</t>
-  </si>
-  <si>
-    <t>421441198</t>
-  </si>
-  <si>
-    <t>L3C4-196645-1-12</t>
-  </si>
-  <si>
-    <t>564348565362</t>
-  </si>
-  <si>
-    <t>594926469</t>
-  </si>
-  <si>
-    <t>L3C4-203211-1-163</t>
-  </si>
-  <si>
-    <t>794955785506</t>
-  </si>
-  <si>
-    <t>737223050</t>
-  </si>
-  <si>
-    <t>L3C4-103314-1-35</t>
-  </si>
-  <si>
-    <t>790453600649</t>
-  </si>
-  <si>
-    <t>421443875</t>
-  </si>
-  <si>
-    <t>L3C4-105264-1-39</t>
-  </si>
-  <si>
-    <t>573164431665</t>
-  </si>
-  <si>
-    <t>737222410</t>
-  </si>
-  <si>
-    <t>L3C4-100037-1-33</t>
-  </si>
-  <si>
-    <t>454843600642</t>
-  </si>
-  <si>
-    <t>421443927</t>
-  </si>
-  <si>
-    <t>L3C4-128295-1-78</t>
-  </si>
-  <si>
-    <t>143253600641</t>
-  </si>
-  <si>
-    <t>421441911</t>
-  </si>
-  <si>
-    <t>L3C4-86689-1-206</t>
-  </si>
-  <si>
-    <t>196193</t>
-  </si>
-  <si>
-    <t>609145862</t>
-  </si>
-  <si>
-    <t>564286011492</t>
-  </si>
-  <si>
-    <t>421444136</t>
-  </si>
-  <si>
-    <t>L3C4-196193-1-104</t>
-  </si>
-  <si>
-    <t>794956355120</t>
-  </si>
-  <si>
-    <t>L3C4-196642-2-125</t>
-  </si>
-  <si>
-    <t>794956508277</t>
-  </si>
-  <si>
-    <t>737222364</t>
-  </si>
-  <si>
-    <t>L3C4-123898-1-60</t>
-  </si>
-  <si>
-    <t>794955187590</t>
-  </si>
-  <si>
-    <t>594926094</t>
-  </si>
-  <si>
-    <t>L3C4-196676-1-132</t>
-  </si>
-  <si>
-    <t>165353600649</t>
-  </si>
-  <si>
-    <t>421442420</t>
-  </si>
-  <si>
-    <t>L3C4-112166-1-56</t>
-  </si>
-  <si>
-    <t>572885147119</t>
-  </si>
-  <si>
-    <t>421442200</t>
-  </si>
-  <si>
-    <t>L3C4-105292-1-41</t>
-  </si>
-  <si>
-    <t>794955789041</t>
-  </si>
-  <si>
-    <t>421440988</t>
-  </si>
-  <si>
-    <t>L3C4-126570-1-69</t>
-  </si>
-  <si>
-    <t>572248476535</t>
-  </si>
-  <si>
-    <t>L3C4-196642-1-123</t>
-  </si>
-  <si>
-    <t>696243600648</t>
-  </si>
-  <si>
-    <t>421443545</t>
-  </si>
-  <si>
-    <t>L3C4-106162-1-49</t>
-  </si>
-  <si>
-    <t>564602114356</t>
-  </si>
-  <si>
-    <t>L3C4-103576-1-36</t>
-  </si>
-  <si>
-    <t>572641048633</t>
-  </si>
-  <si>
-    <t>594926454</t>
-  </si>
-  <si>
-    <t>L3C4-196543-1-114</t>
-  </si>
-  <si>
-    <t>572791647321</t>
-  </si>
-  <si>
-    <t>421442858</t>
-  </si>
-  <si>
-    <t>L3C4-126610-1-71</t>
-  </si>
-  <si>
-    <t>794955128249</t>
-  </si>
-  <si>
-    <t>421443093</t>
-  </si>
-  <si>
-    <t>L3C4-190260-1-89</t>
-  </si>
-  <si>
-    <t>564524113774</t>
-  </si>
-  <si>
-    <t>794955306490</t>
-  </si>
-  <si>
-    <t>421444160</t>
-  </si>
-  <si>
-    <t>594926470</t>
-  </si>
-  <si>
-    <t>L3C4-196446-1-7</t>
-  </si>
-  <si>
-    <t>794956513894</t>
-  </si>
-  <si>
-    <t>594926492</t>
-  </si>
-  <si>
-    <t>L3C4-196482-1-112</t>
-  </si>
-  <si>
-    <t>794955139073</t>
-  </si>
-  <si>
-    <t>421441480</t>
-  </si>
-  <si>
-    <t>L3C4-202482-1-154</t>
-  </si>
-  <si>
-    <t>894253600641</t>
-  </si>
-  <si>
-    <t>421441774</t>
-  </si>
-  <si>
-    <t>L3C4-51460-1-171</t>
-  </si>
-  <si>
-    <t>242743600640</t>
-  </si>
-  <si>
-    <t>421441887</t>
-  </si>
-  <si>
-    <t>L3C4-125217-1-67</t>
-  </si>
-  <si>
-    <t>703253600644</t>
-  </si>
-  <si>
-    <t>L3C4-52537-1-184</t>
-  </si>
-  <si>
-    <t>963253600645</t>
-  </si>
-  <si>
-    <t>L3C4-52539-1-185</t>
-  </si>
-  <si>
-    <t>794955822055</t>
-  </si>
-  <si>
-    <t>794955331870</t>
-  </si>
-  <si>
-    <t>421443155</t>
-  </si>
-  <si>
-    <t>421445170</t>
-  </si>
-  <si>
-    <t>L3C4-196450-2-3</t>
-  </si>
-  <si>
-    <t>794955187693</t>
-  </si>
-  <si>
-    <t>594926426</t>
-  </si>
-  <si>
-    <t>L3C4-196675-1-131</t>
-  </si>
-  <si>
-    <t>572782147470</t>
-  </si>
-  <si>
-    <t>120274894</t>
-  </si>
-  <si>
-    <t>L3C4-12512-1-66</t>
-  </si>
-  <si>
-    <t>750843600645</t>
-  </si>
-  <si>
-    <t>L3C4-105676-1-44</t>
-  </si>
-  <si>
-    <t>167643600649</t>
-  </si>
-  <si>
-    <t>421441773</t>
-  </si>
-  <si>
-    <t>L3C4-52382-1-174</t>
-  </si>
-  <si>
-    <t>719253600643</t>
-  </si>
-  <si>
-    <t>421441583</t>
-  </si>
-  <si>
-    <t>L3C4-106174-1-53</t>
-  </si>
-  <si>
-    <t>142253600645</t>
-  </si>
-  <si>
-    <t>120274795</t>
-  </si>
-  <si>
-    <t>L3C4-94105-1-214</t>
-  </si>
-  <si>
-    <t>794955306456</t>
-  </si>
-  <si>
-    <t>594926448</t>
-  </si>
-  <si>
-    <t>L3C4-198226-1-137</t>
-  </si>
-  <si>
-    <t>076762375100</t>
-  </si>
-  <si>
-    <t>076762375148</t>
-  </si>
-  <si>
-    <t>421441267</t>
-  </si>
-  <si>
-    <t>421445219</t>
-  </si>
-  <si>
-    <t>L3C4-199011-1-29</t>
-  </si>
-  <si>
-    <t>678343600641</t>
-  </si>
-  <si>
-    <t>421442929</t>
-  </si>
-  <si>
-    <t>L3C4-126639-1-76</t>
-  </si>
-  <si>
-    <t>773143600647</t>
-  </si>
-  <si>
-    <t>120274448</t>
-  </si>
-  <si>
-    <t>L3C4-51458-1-170</t>
-  </si>
-  <si>
-    <t>564589862426</t>
-  </si>
-  <si>
-    <t>421441893</t>
-  </si>
-  <si>
-    <t>L3C4-88637-1-213</t>
-  </si>
-  <si>
-    <t>335743600641</t>
-  </si>
-  <si>
-    <t>421445674</t>
-  </si>
-  <si>
-    <t>L3C4-105963-1-46</t>
-  </si>
-  <si>
-    <t>794955814333</t>
-  </si>
-  <si>
-    <t>L3C4-17360-1-85</t>
-  </si>
-  <si>
-    <t>564524113763</t>
-  </si>
-  <si>
-    <t>L3C4-196445-2-105</t>
-  </si>
-  <si>
-    <t>063420030214</t>
-  </si>
-  <si>
-    <t>421443144</t>
-  </si>
-  <si>
-    <t>L3C4-196558-1-121</t>
-  </si>
-  <si>
-    <t>794955789199</t>
-  </si>
-  <si>
-    <t>421441423</t>
-  </si>
-  <si>
-    <t>L3C4-126577-1-70</t>
-  </si>
-  <si>
-    <t>196533</t>
-  </si>
-  <si>
-    <t>794955961467</t>
-  </si>
-  <si>
-    <t>794955331940</t>
-  </si>
-  <si>
-    <t>421445156</t>
-  </si>
-  <si>
-    <t>421441215</t>
-  </si>
-  <si>
-    <t>L3C4-196533-1-4</t>
-  </si>
-  <si>
-    <t>794955859821</t>
-  </si>
-  <si>
-    <t>421440920</t>
-  </si>
-  <si>
-    <t>L3C4-71102-1-190</t>
-  </si>
-  <si>
-    <t>794955912767</t>
-  </si>
-  <si>
-    <t>421441161</t>
-  </si>
-  <si>
-    <t>L3C4-202879-1-158</t>
-  </si>
-  <si>
-    <t>203208</t>
-  </si>
-  <si>
-    <t>573033399623</t>
-  </si>
-  <si>
-    <t>737222689</t>
-  </si>
-  <si>
-    <t>L3C4-203208-1-160</t>
-  </si>
-  <si>
-    <t>572641048644</t>
-  </si>
-  <si>
-    <t>594926458</t>
-  </si>
-  <si>
-    <t>L3C4-196544-1-115</t>
-  </si>
-  <si>
-    <t>070320111497</t>
-  </si>
-  <si>
-    <t>421445044</t>
-  </si>
-  <si>
-    <t>L3C4-176602-1-86</t>
-  </si>
-  <si>
-    <t>790243600642</t>
-  </si>
-  <si>
-    <t>421445545</t>
-  </si>
-  <si>
-    <t>L3C4-106163-1-50</t>
-  </si>
-  <si>
-    <t>573267931720</t>
-  </si>
-  <si>
-    <t>737222933</t>
-  </si>
-  <si>
-    <t>L3C4-202893-1-159</t>
-  </si>
-  <si>
-    <t>572615795104</t>
-  </si>
-  <si>
-    <t>421441421</t>
-  </si>
-  <si>
-    <t>L3C4-112087-1-55</t>
-  </si>
-  <si>
-    <t>52536</t>
-  </si>
-  <si>
-    <t>662253600640</t>
-  </si>
-  <si>
-    <t>421443892</t>
-  </si>
-  <si>
-    <t>L3C4-52536-1-183</t>
-  </si>
-  <si>
-    <t>572784397109</t>
-  </si>
-  <si>
-    <t>421443391</t>
-  </si>
-  <si>
-    <t>L3C4-126615-1-72</t>
-  </si>
-  <si>
-    <t>625143600642</t>
-  </si>
-  <si>
-    <t>L3C4-51456-1-169</t>
-  </si>
-  <si>
-    <t>573269181574</t>
-  </si>
-  <si>
-    <t>737222931</t>
-  </si>
-  <si>
-    <t>L3C4-202879-2-157</t>
-  </si>
-  <si>
-    <t>279453600640</t>
-  </si>
-  <si>
-    <t>120274386</t>
-  </si>
-  <si>
-    <t>L3C4-85298-1-204</t>
-  </si>
-  <si>
-    <t>794955331593</t>
-  </si>
-  <si>
-    <t>L3C4-179903-1-88</t>
-  </si>
-  <si>
-    <t>684743600648</t>
-  </si>
-  <si>
-    <t>L3C4-105962-1-45</t>
-  </si>
-  <si>
-    <t>794955932600</t>
-  </si>
-  <si>
-    <t>421442424</t>
-  </si>
-  <si>
-    <t>L3C4-12464-1-64</t>
-  </si>
-  <si>
-    <t>564535114414</t>
-  </si>
-  <si>
-    <t>421441439</t>
-  </si>
-  <si>
-    <t>L3C4-71041-1-186</t>
-  </si>
-  <si>
-    <t>794956539015</t>
-  </si>
-  <si>
-    <t>737223719</t>
-  </si>
-  <si>
-    <t>L3C4-196732-1-135</t>
-  </si>
-  <si>
-    <t>794955815410</t>
-  </si>
-  <si>
-    <t>L3C4-177166-1-87</t>
-  </si>
-  <si>
-    <t>794955986600</t>
-  </si>
-  <si>
-    <t>L3C4-98512-1-218</t>
-  </si>
-  <si>
-    <t>196451</t>
-  </si>
-  <si>
-    <t>610617921</t>
-  </si>
-  <si>
-    <t>567451122893</t>
-  </si>
-  <si>
-    <t>L3C4-196451-2-108</t>
-  </si>
-  <si>
-    <t>573167431150</t>
-  </si>
-  <si>
-    <t>737222404</t>
-  </si>
-  <si>
-    <t>L3C4-200164-1-142</t>
-  </si>
-  <si>
-    <t>564348563680</t>
-  </si>
-  <si>
-    <t>594924534</t>
-  </si>
-  <si>
-    <t>L3C4-196643-1-126</t>
-  </si>
-  <si>
-    <t>076762375117</t>
-  </si>
-  <si>
-    <t>076762375155</t>
-  </si>
-  <si>
-    <t>L3C4-199012-1-30</t>
-  </si>
-  <si>
-    <t>496143600640</t>
-  </si>
-  <si>
-    <t>120274893</t>
-  </si>
-  <si>
-    <t>L3C4-172239-1-84</t>
-  </si>
-  <si>
-    <t>794955789590</t>
-  </si>
-  <si>
-    <t>L3C4-126631-1-74</t>
-  </si>
-  <si>
-    <t>613243600641</t>
-  </si>
-  <si>
-    <t>L3C4-105555-1-42</t>
-  </si>
-  <si>
-    <t>922253600645</t>
-  </si>
-  <si>
-    <t>L3C4-52532-1-182</t>
-  </si>
-  <si>
-    <t>675143600647</t>
-  </si>
-  <si>
-    <t>L3C4-71088-1-187</t>
-  </si>
-  <si>
-    <t>107343600645</t>
-  </si>
-  <si>
-    <t>L3C4-51961-1-173</t>
-  </si>
-  <si>
-    <t>272353600643</t>
-  </si>
-  <si>
-    <t>L3C4-112371-1-58</t>
-  </si>
-  <si>
-    <t>595253600640</t>
-  </si>
-  <si>
-    <t>L3C4-112339-1-57</t>
-  </si>
-  <si>
-    <t>794955926075</t>
-  </si>
-  <si>
-    <t>421442886</t>
-  </si>
-  <si>
-    <t>L3C4-99124-1-220</t>
-  </si>
-  <si>
-    <t>564535114609</t>
-  </si>
-  <si>
-    <t>L3C4-71095-1-188</t>
-  </si>
-  <si>
-    <t>794956355196</t>
-  </si>
-  <si>
-    <t>063420030238</t>
-  </si>
-  <si>
-    <t>421442178</t>
-  </si>
-  <si>
-    <t>L3C4-196644-1-11</t>
-  </si>
-  <si>
-    <t>184553600640</t>
-  </si>
-  <si>
-    <t>421445684</t>
-  </si>
-  <si>
-    <t>L3C4-125355-1-68</t>
-  </si>
-  <si>
-    <t>567451122908</t>
-  </si>
-  <si>
-    <t>L3C4-196452-1-109</t>
-  </si>
-  <si>
-    <t>794955183140</t>
-  </si>
-  <si>
-    <t>594926400</t>
-  </si>
-  <si>
-    <t>L3C4-194905-1-100</t>
-  </si>
-  <si>
-    <t>794955789718</t>
-  </si>
-  <si>
-    <t>L3C4-126637-1-75</t>
-  </si>
-  <si>
-    <t>794956571810</t>
-  </si>
-  <si>
-    <t>594926403</t>
-  </si>
-  <si>
-    <t>L3C4-196605-1-122</t>
-  </si>
-  <si>
-    <t>794955821964</t>
-  </si>
-  <si>
-    <t>L3C4-196445-1-106</t>
-  </si>
-  <si>
-    <t>683253600649</t>
-  </si>
-  <si>
-    <t>421444064</t>
-  </si>
-  <si>
-    <t>L3C4-201058-1-144</t>
-  </si>
-  <si>
-    <t>804562240149</t>
-  </si>
-  <si>
-    <t>594925705</t>
-  </si>
-  <si>
-    <t>L3C4-196674-1-130</t>
-  </si>
-  <si>
-    <t>596643600646</t>
-  </si>
-  <si>
-    <t>L3C4-51959-1-172</t>
-  </si>
-  <si>
-    <t>564601112200</t>
-  </si>
-  <si>
-    <t>421443901</t>
-  </si>
-  <si>
-    <t>L3C4-99121-1-219</t>
-  </si>
-  <si>
-    <t>193362</t>
-  </si>
-  <si>
-    <t>572850647140</t>
-  </si>
-  <si>
-    <t>421441159</t>
-  </si>
-  <si>
-    <t>L3C4-193362-1-97</t>
-  </si>
-  <si>
-    <t>564584362512</t>
-  </si>
-  <si>
-    <t>L3C4-105153-1-38</t>
-  </si>
-  <si>
-    <t>573045898624</t>
-  </si>
-  <si>
-    <t>737223187</t>
-  </si>
-  <si>
-    <t>L3C4-203212-1-164</t>
-  </si>
-  <si>
-    <t>131343600640</t>
-  </si>
-  <si>
-    <t>L3C4-100365-1-34</t>
-  </si>
-  <si>
-    <t>804562480026</t>
-  </si>
-  <si>
-    <t>L3C4-198229-1-138</t>
-  </si>
-  <si>
-    <t>794955187627</t>
-  </si>
-  <si>
-    <t>594926424</t>
-  </si>
-  <si>
-    <t>L3C4-196673-1-129</t>
-  </si>
-  <si>
-    <t>794955333059</t>
-  </si>
-  <si>
-    <t>421444450</t>
-  </si>
-  <si>
-    <t>L3C4-202483-1-155</t>
-  </si>
-  <si>
-    <t>564591112216</t>
-  </si>
-  <si>
-    <t>L3C4-88496-1-208</t>
-  </si>
-  <si>
-    <t>808643600649</t>
-  </si>
-  <si>
-    <t>L3C4-52526-1-177</t>
-  </si>
-  <si>
-    <t>564524113796</t>
-  </si>
-  <si>
-    <t>794955399935</t>
-  </si>
-  <si>
-    <t>594926443</t>
-  </si>
-  <si>
-    <t>L3C4-196448-1-8</t>
-  </si>
-  <si>
-    <t>572947397100</t>
-  </si>
-  <si>
-    <t>421442578</t>
-  </si>
-  <si>
-    <t>L3C4-106168-1-52</t>
-  </si>
-  <si>
-    <t>703731244</t>
-  </si>
-  <si>
-    <t>567451122985</t>
-  </si>
-  <si>
-    <t>L3C4-202483-2-156</t>
-  </si>
-  <si>
-    <t>656243600644</t>
-  </si>
-  <si>
-    <t>421443542</t>
-  </si>
-  <si>
-    <t>L3C4-106159-1-48</t>
-  </si>
-  <si>
-    <t>572641048666</t>
-  </si>
-  <si>
-    <t>594926459</t>
-  </si>
-  <si>
-    <t>L3C4-196546-1-118</t>
-  </si>
-  <si>
-    <t>564535114610</t>
-  </si>
-  <si>
-    <t>L3C4-71096-1-189</t>
-  </si>
-  <si>
-    <t>388343600644</t>
-  </si>
-  <si>
-    <t>L3C4-126644-1-77</t>
-  </si>
-  <si>
-    <t>794955136648</t>
-  </si>
-  <si>
-    <t>794955136968</t>
-  </si>
-  <si>
-    <t>L3C4-199015-1-32</t>
-  </si>
-  <si>
-    <t>572997397115</t>
-  </si>
-  <si>
-    <t>L3C4-105265-1-40</t>
-  </si>
-  <si>
-    <t>572641048655</t>
-  </si>
-  <si>
-    <t>594926457</t>
-  </si>
-  <si>
-    <t>L3C4-196545-1-116</t>
-  </si>
-  <si>
-    <t>850462255693</t>
-  </si>
-  <si>
-    <t>594927967</t>
-  </si>
-  <si>
-    <t>L3C4-196677-1-133</t>
-  </si>
-  <si>
-    <t>076762375124</t>
-  </si>
-  <si>
-    <t>076762375162</t>
-  </si>
-  <si>
-    <t>L3C4-199013-1-31</t>
-  </si>
-  <si>
-    <t>850462255709</t>
-  </si>
-  <si>
-    <t>L3C4-196678-1-134</t>
-  </si>
-  <si>
-    <t>666643600646</t>
-  </si>
-  <si>
-    <t>120274794</t>
-  </si>
-  <si>
-    <t>L3C4-88406-1-207</t>
-  </si>
-  <si>
-    <t>794955961169</t>
-  </si>
-  <si>
-    <t>421444164</t>
-  </si>
-  <si>
-    <t>L3C4-196653-1-128</t>
-  </si>
-  <si>
-    <t>794956456313</t>
-  </si>
-  <si>
-    <t>737222417</t>
-  </si>
-  <si>
-    <t>L3C4-201509-1-152</t>
-  </si>
-  <si>
-    <t>463253600641</t>
-  </si>
-  <si>
-    <t>421445161</t>
-  </si>
-  <si>
-    <t>L3C4-201057-1-143</t>
-  </si>
-  <si>
-    <t>487643600649</t>
-  </si>
-  <si>
-    <t>L3C4-52384-1-175</t>
-  </si>
-  <si>
-    <t>572883897109</t>
-  </si>
-  <si>
-    <t>421442577</t>
-  </si>
-  <si>
-    <t>L3C4-106167-1-51</t>
-  </si>
-  <si>
-    <t>484020922211</t>
-  </si>
-  <si>
-    <t>737222370</t>
-  </si>
-  <si>
-    <t>L3C4-201510-1-153</t>
+    <t>470009994827</t>
+  </si>
+  <si>
+    <t>421171989</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-38</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +1282,7 @@
   <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,50 +1354,50 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>479</v>
+        <v>291</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>480</v>
+        <v>292</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>481</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>482</v>
+        <v>291</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -3068,85 +1409,85 @@
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>484</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>464</v>
+        <v>289</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>485</v>
+        <v>291</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>486</v>
+        <v>292</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>487</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>488</v>
+        <v>291</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>489</v>
+        <v>292</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>490</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>491</v>
+        <v>291</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>492</v>
+        <v>292</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -3158,25 +1499,25 @@
         <v>13</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>493</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>384</v>
+        <v>289</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>494</v>
+        <v>291</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>495</v>
+        <v>292</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -3188,129 +1529,118 @@
         <v>13</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>496</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>497</v>
+        <v>291</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>498</v>
+        <v>292</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>499</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>500</v>
+        <v>291</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>501</v>
+        <v>292</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>502</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>461</v>
+        <v>289</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>503</v>
+        <v>291</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>504</v>
+        <v>292</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>505</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>507</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>509</v>
+        <v>292</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>18</v>
@@ -3319,55 +1649,55 @@
         <v>13</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>510</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>462</v>
+        <v>289</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>511</v>
+        <v>291</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>512</v>
+        <v>292</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>513</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>442</v>
+        <v>289</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>514</v>
+        <v>291</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>515</v>
+        <v>292</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -3379,25 +1709,25 @@
         <v>13</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>516</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>517</v>
+        <v>291</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>518</v>
+        <v>292</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -3409,25 +1739,25 @@
         <v>13</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>519</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>520</v>
+        <v>291</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>521</v>
+        <v>292</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -3439,25 +1769,25 @@
         <v>13</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>522</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>523</v>
+        <v>291</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>524</v>
+        <v>292</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -3469,28 +1799,28 @@
         <v>13</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>525</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>526</v>
+        <v>291</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>527</v>
+        <v>292</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>18</v>
@@ -3499,85 +1829,85 @@
         <v>13</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>528</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>531</v>
+        <v>291</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>532</v>
+        <v>292</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>533</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>534</v>
+        <v>291</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>508</v>
+        <v>292</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>535</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>447</v>
+        <v>289</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>448</v>
+        <v>290</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>536</v>
+        <v>291</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>537</v>
+        <v>292</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
@@ -3589,3374 +1919,444 @@
         <v>13</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>538</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>539</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>542</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>544</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>545</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>547</v>
-      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>548</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>550</v>
-      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>551</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>552</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>553</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>555</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>556</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>558</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>560</v>
-      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>561</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>564</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>566</v>
-      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>571</v>
-      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>572</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>575</v>
-      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>578</v>
-      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>581</v>
-      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>584</v>
-      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>586</v>
-      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>593</v>
-      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>596</v>
-      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>599</v>
-      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>601</v>
-      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>604</v>
-      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>607</v>
-      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>610</v>
-      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>618</v>
-      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>621</v>
-      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>624</v>
-      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>627</v>
-      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>630</v>
-      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>632</v>
-      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>634</v>
-      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>637</v>
-      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>646</v>
-      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>649</v>
-      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>653</v>
-      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>656</v>
-      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>659</v>
-      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>662</v>
-      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>665</v>
-      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>668</v>
-      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>672</v>
-      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>675</v>
-      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>678</v>
-      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>680</v>
-      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>683</v>
-      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>686</v>
-      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>688</v>
-      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>690</v>
-      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>693</v>
-      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>696</v>
-      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>699</v>
-      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>701</v>
-      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>705</v>
-      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>707</v>
-      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>710</v>
-      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>719</v>
-      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>721</v>
-      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>723</v>
-      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>725</v>
-      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>727</v>
-      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>729</v>
-      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>731</v>
-      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>733</v>
-      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>736</v>
-      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>742</v>
-      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>745</v>
-      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>747</v>
-      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>750</v>
-      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>752</v>
-      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>755</v>
-      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>757</v>
-      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>760</v>
-      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>763</v>
-      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>765</v>
-      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>769</v>
-      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="2"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>772</v>
-      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-      <c r="G102" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>774</v>
-      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="2"/>
       <c r="F103" s="2"/>
-      <c r="G103" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M103" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>777</v>
-      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>779</v>
-      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>781</v>
-      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>784</v>
-      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>787</v>
-      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>789</v>
-      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>795</v>
-      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>799</v>
-      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>801</v>
-      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-      <c r="G113" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>804</v>
-      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="2"/>
       <c r="F114" s="2"/>
-      <c r="G114" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>807</v>
-      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-      <c r="G115" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>809</v>
-      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>814</v>
-      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="2"/>
       <c r="F118" s="2"/>
-      <c r="G118" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>816</v>
-      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M119" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>819</v>
-      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>825</v>
-      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>827</v>
-      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>830</v>
-      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-      <c r="G124" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M124" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>833</v>
-      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-      <c r="G125" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>836</v>
-      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>839</v>
-      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>841</v>
-      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-      <c r="G128" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M128" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>844</v>
-      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>846</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E74">

--- a/test data/rerate2.xlsx
+++ b/test data/rerate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E34D05-7319-4F0B-8D72-8F3020A9A434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF910D-50A7-4AFB-84AD-A31BC3DC57C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOMESTIC" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="311">
   <si>
     <t>TRKNGNBR</t>
   </si>
@@ -902,23 +902,80 @@
     <t>450312851</t>
   </si>
   <si>
-    <t>470009994827</t>
-  </si>
-  <si>
     <t>421171989</t>
   </si>
   <si>
     <t>L2C3-105153-1-38</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1282,7 +1339,7 @@
   <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E2" sqref="E2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,23 +1420,23 @@
         <v>290</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1393,23 +1450,23 @@
         <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1423,23 +1480,23 @@
         <v>290</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1453,23 +1510,23 @@
         <v>290</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,23 +1540,23 @@
         <v>290</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1513,23 +1570,23 @@
         <v>290</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1543,23 +1600,23 @@
         <v>290</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1573,23 +1630,23 @@
         <v>290</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1603,23 +1660,23 @@
         <v>290</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,23 +1690,23 @@
         <v>290</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1663,23 +1720,23 @@
         <v>290</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1693,23 +1750,23 @@
         <v>290</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1723,23 +1780,23 @@
         <v>290</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1753,23 +1810,23 @@
         <v>290</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1783,23 +1840,23 @@
         <v>290</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1813,23 +1870,23 @@
         <v>290</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1843,23 +1900,23 @@
         <v>290</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1873,23 +1930,23 @@
         <v>290</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1903,23 +1960,23 @@
         <v>290</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2359,6 +2416,7 @@
       <c r="F129" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2:E74">
     <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>

--- a/test data/rerate2.xlsx
+++ b/test data/rerate2.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5194105\Documents\Eclipse Projects\Master GUI\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF910D-50A7-4AFB-84AD-A31BC3DC57C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11385" windowWidth="21600" xWindow="4155" yWindow="4155"/>
   </bookViews>
   <sheets>
-    <sheet name="DOMESTIC" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="DOMESTIC" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="3"/>
+    <sheet name="Sheet2" r:id="rId3" sheetId="4"/>
+    <sheet name="Sheet3" r:id="rId4" sheetId="5"/>
+    <sheet name="Sheet4" r:id="rId5" sheetId="6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOMESTIC!$A$1:$P$124</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">DOMESTIC!$A$1:$P$124</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="351">
   <si>
     <t>TRKNGNBR</t>
   </si>
@@ -905,9 +904,6 @@
     <t>421171989</t>
   </si>
   <si>
-    <t>L2C3-105153-1-38</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -929,6 +925,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>RequestID</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -960,12 +959,133 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-9</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-10</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-11</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-12</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-13</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-14</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-15</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-16</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-17</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-18</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-19</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-20</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-21</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-22</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-23</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-24</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-25</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-26</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-27</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-28</t>
+  </si>
+  <si>
+    <t>46061</t>
+  </si>
+  <si>
+    <t>46063</t>
+  </si>
+  <si>
+    <t>46062</t>
+  </si>
+  <si>
+    <t>46065</t>
+  </si>
+  <si>
+    <t>46066</t>
+  </si>
+  <si>
+    <t>46067</t>
+  </si>
+  <si>
+    <t>46068</t>
+  </si>
+  <si>
+    <t>46069</t>
+  </si>
+  <si>
+    <t>46070</t>
+  </si>
+  <si>
+    <t>46071</t>
+  </si>
+  <si>
+    <t>46072</t>
+  </si>
+  <si>
+    <t>46073</t>
+  </si>
+  <si>
+    <t>46075</t>
+  </si>
+  <si>
+    <t>46074</t>
+  </si>
+  <si>
+    <t>46076</t>
+  </si>
+  <si>
+    <t>46077</t>
+  </si>
+  <si>
+    <t>46078</t>
+  </si>
+  <si>
+    <t>46079</t>
+  </si>
+  <si>
+    <t>46080</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,17 +1119,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1061,7 +1191,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1078,10 +1208,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1116,7 +1246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1151,7 +1281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1245,21 +1375,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1276,7 +1406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1328,38 +1458,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="74.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="9" max="10" style="2" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="74.7109375" collapsed="true"/>
+    <col min="17" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1402,11 +1532,11 @@
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
+      <c r="N1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,7 +1566,13 @@
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>292</v>
+        <v>312</v>
+      </c>
+      <c r="N2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1450,7 +1586,7 @@
         <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
@@ -1466,7 +1602,13 @@
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>292</v>
+        <v>313</v>
+      </c>
+      <c r="N3" t="s">
+        <v>332</v>
+      </c>
+      <c r="O3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1480,7 +1622,7 @@
         <v>290</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -1496,7 +1638,13 @@
         <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>292</v>
+        <v>314</v>
+      </c>
+      <c r="N4" t="s">
+        <v>334</v>
+      </c>
+      <c r="O4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1510,7 +1658,7 @@
         <v>290</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -1526,7 +1674,13 @@
         <v>13</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>292</v>
+        <v>315</v>
+      </c>
+      <c r="N5" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1540,7 +1694,7 @@
         <v>290</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -1556,7 +1710,13 @@
         <v>13</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
+      </c>
+      <c r="N6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1570,7 +1730,7 @@
         <v>290</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -1586,7 +1746,13 @@
         <v>13</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>292</v>
+        <v>317</v>
+      </c>
+      <c r="N7" t="s">
+        <v>336</v>
+      </c>
+      <c r="O7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1600,7 +1766,7 @@
         <v>290</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -1616,7 +1782,13 @@
         <v>13</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>292</v>
+        <v>318</v>
+      </c>
+      <c r="N8" t="s">
+        <v>338</v>
+      </c>
+      <c r="O8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1630,7 +1802,7 @@
         <v>290</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
@@ -1646,7 +1818,13 @@
         <v>13</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>292</v>
+        <v>319</v>
+      </c>
+      <c r="N9" t="s">
+        <v>339</v>
+      </c>
+      <c r="O9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1676,7 +1854,13 @@
         <v>13</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>292</v>
+        <v>320</v>
+      </c>
+      <c r="N10" t="s">
+        <v>341</v>
+      </c>
+      <c r="O10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1706,7 +1890,13 @@
         <v>13</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>292</v>
+        <v>321</v>
+      </c>
+      <c r="N11" t="s">
+        <v>340</v>
+      </c>
+      <c r="O11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1736,7 +1926,13 @@
         <v>13</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>292</v>
+        <v>322</v>
+      </c>
+      <c r="N12" t="s">
+        <v>342</v>
+      </c>
+      <c r="O12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1766,7 +1962,13 @@
         <v>13</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>292</v>
+        <v>323</v>
+      </c>
+      <c r="N13" t="s">
+        <v>343</v>
+      </c>
+      <c r="O13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1796,7 +1998,13 @@
         <v>13</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>292</v>
+        <v>324</v>
+      </c>
+      <c r="N14" t="s">
+        <v>344</v>
+      </c>
+      <c r="O14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1826,7 +2034,13 @@
         <v>13</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>292</v>
+        <v>325</v>
+      </c>
+      <c r="N15" t="s">
+        <v>345</v>
+      </c>
+      <c r="O15" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1856,10 +2070,16 @@
         <v>13</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="N16" t="s">
+        <v>346</v>
+      </c>
+      <c r="O16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>289</v>
       </c>
@@ -1886,10 +2106,16 @@
         <v>13</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="N17" t="s">
+        <v>347</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>289</v>
       </c>
@@ -1916,10 +2142,16 @@
         <v>13</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="N18" t="s">
+        <v>348</v>
+      </c>
+      <c r="O18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>289</v>
       </c>
@@ -1946,10 +2178,16 @@
         <v>13</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="N19" t="s">
+        <v>349</v>
+      </c>
+      <c r="O19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>289</v>
       </c>
@@ -1976,54 +2214,86 @@
         <v>13</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N20" t="s">
+        <v>350</v>
+      </c>
+      <c r="O20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
@@ -2418,15 +2688,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2:E74">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule dxfId="5" priority="12" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView topLeftCell="A95" workbookViewId="0">
@@ -2435,12 +2705,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" collapsed="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" collapsed="1"/>
+    <col min="1" max="2" width="9.140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -7442,14 +7712,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule dxfId="4" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7458,12 +7728,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7471,14 +7741,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule dxfId="3" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7488,11 +7758,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <conditionalFormatting sqref="E1:E100">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule dxfId="2" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule dxfId="1" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/test data/rerate2.xlsx
+++ b/test data/rerate2.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF910D-50A7-4AFB-84AD-A31BC3DC57C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9773697F-ED6A-42FF-8B4A-D52C907AD5E9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11385" windowWidth="21600" xWindow="4155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="4155"/>
   </bookViews>
   <sheets>
-    <sheet name="DOMESTIC" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="DOMESTIC" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet1" r:id="rId2" sheetId="3"/>
+    <sheet name="Sheet2" r:id="rId3" sheetId="4"/>
+    <sheet name="Sheet3" r:id="rId4" sheetId="5"/>
+    <sheet name="Sheet4" r:id="rId5" sheetId="6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOMESTIC!$A$1:$P$124</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">DOMESTIC!$A$1:$P$113</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="317">
   <si>
     <t>TRKNGNBR</t>
   </si>
@@ -905,9 +905,6 @@
     <t>421171989</t>
   </si>
   <si>
-    <t>L2C3-105153-1-38</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -929,43 +926,65 @@
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>L2C3-105153-1-1</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-2</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-3</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-4</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-5</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-6</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-7</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-8</t>
+  </si>
+  <si>
+    <t>46082</t>
+  </si>
+  <si>
+    <t>46081</t>
+  </si>
+  <si>
+    <t>46083</t>
+  </si>
+  <si>
+    <t>46084</t>
+  </si>
+  <si>
+    <t>46086</t>
+  </si>
+  <si>
+    <t>46085</t>
+  </si>
+  <si>
+    <t>46087</t>
+  </si>
+  <si>
+    <t>46089</t>
+  </si>
+  <si>
+    <t>46088</t>
+  </si>
+  <si>
+    <t>46090</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,15 +1018,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1061,7 +1080,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1078,10 +1097,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1245,21 +1264,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1276,7 +1295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1328,38 +1347,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="74.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="9" max="10" style="2" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="74.7109375" collapsed="true"/>
+    <col min="17" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,7 +1455,13 @@
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
+      </c>
+      <c r="N2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1450,7 +1475,7 @@
         <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
@@ -1466,7 +1491,13 @@
         <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>292</v>
+        <v>300</v>
+      </c>
+      <c r="N3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1480,7 +1511,7 @@
         <v>290</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -1496,7 +1527,13 @@
         <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+      <c r="N4" t="s">
+        <v>310</v>
+      </c>
+      <c r="O4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1510,7 +1547,7 @@
         <v>290</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -1526,7 +1563,13 @@
         <v>13</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
+      </c>
+      <c r="N5" t="s">
+        <v>314</v>
+      </c>
+      <c r="O5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1540,7 +1583,7 @@
         <v>290</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -1556,7 +1599,13 @@
         <v>13</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
+      </c>
+      <c r="N6" t="s">
+        <v>311</v>
+      </c>
+      <c r="O6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1570,7 +1619,7 @@
         <v>290</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -1586,7 +1635,13 @@
         <v>13</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
+      </c>
+      <c r="N7" t="s">
+        <v>316</v>
+      </c>
+      <c r="O7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1600,7 +1655,7 @@
         <v>290</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
@@ -1616,7 +1671,13 @@
         <v>13</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>292</v>
+        <v>305</v>
+      </c>
+      <c r="N8" t="s">
+        <v>313</v>
+      </c>
+      <c r="O8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1630,7 +1691,7 @@
         <v>290</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
@@ -1646,384 +1707,98 @@
         <v>13</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>302</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>305</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>307</v>
-      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>308</v>
-      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>309</v>
-      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>310</v>
-      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
@@ -2371,62 +2146,18 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E74">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+  <conditionalFormatting sqref="E2:E63">
+    <cfRule dxfId="0" priority="12" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView topLeftCell="A95" workbookViewId="0">
@@ -2435,12 +2166,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" collapsed="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" collapsed="1"/>
+    <col min="1" max="2" width="9.140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -7442,14 +7173,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule dxfId="4" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7458,12 +7189,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7471,14 +7202,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule dxfId="3" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7488,11 +7219,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <conditionalFormatting sqref="E1:E100">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule dxfId="2" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule dxfId="1" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/test data/rerate2.xlsx
+++ b/test data/rerate2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{986769F1-DDA3-4A80-8017-C6B8B3E99849}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{91C55418-F2E7-4143-AE18-D595B93EFAB9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11385" windowWidth="21600" xWindow="3465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3465"/>
+    <workbookView windowHeight="11385" windowWidth="21600" xWindow="3810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3810"/>
   </bookViews>
   <sheets>
     <sheet name="DOMESTIC" r:id="rId1" sheetId="2"/>
@@ -20,14 +20,14 @@
     <sheet name="Sheet4" r:id="rId5" sheetId="6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">DOMESTIC!$A$1:$P$124</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">DOMESTIC!$A$1:$P$122</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="331">
   <si>
     <t>TRKNGNBR</t>
   </si>
@@ -896,67 +896,130 @@
     <t>1</t>
   </si>
   <si>
-    <t>105153</t>
-  </si>
-  <si>
     <t>450312851</t>
   </si>
   <si>
-    <t>470009994827</t>
-  </si>
-  <si>
-    <t>421171989</t>
-  </si>
-  <si>
-    <t>46183</t>
-  </si>
-  <si>
-    <t>46187</t>
-  </si>
-  <si>
-    <t>L2C3-105153-1-39</t>
-  </si>
-  <si>
-    <t>L2C3-105153-1-40</t>
-  </si>
-  <si>
-    <t>L2C3-105153-1-41</t>
-  </si>
-  <si>
-    <t>L2C3-105153-1-42</t>
-  </si>
-  <si>
-    <t>L2C3-105153-1-43</t>
-  </si>
-  <si>
-    <t>L2C3-105153-1-44</t>
-  </si>
-  <si>
-    <t>L2C3-105153-1-45</t>
-  </si>
-  <si>
-    <t>L2C3-105153-1-46</t>
-  </si>
-  <si>
-    <t>46198</t>
-  </si>
-  <si>
-    <t>46201</t>
-  </si>
-  <si>
-    <t>46200</t>
-  </si>
-  <si>
-    <t>46199</t>
-  </si>
-  <si>
-    <t>46204</t>
-  </si>
-  <si>
-    <t>46203</t>
-  </si>
-  <si>
-    <t>46202</t>
+    <t>105292</t>
+  </si>
+  <si>
+    <t>610211682</t>
+  </si>
+  <si>
+    <t>134759738601</t>
+  </si>
+  <si>
+    <t>421454960</t>
+  </si>
+  <si>
+    <t>L3C8-105292-1-41</t>
+  </si>
+  <si>
+    <t>126610</t>
+  </si>
+  <si>
+    <t>209969738600</t>
+  </si>
+  <si>
+    <t>421453046</t>
+  </si>
+  <si>
+    <t>L3C8-126610-1-71</t>
+  </si>
+  <si>
+    <t>105676</t>
+  </si>
+  <si>
+    <t>451143280</t>
+  </si>
+  <si>
+    <t>240972736735</t>
+  </si>
+  <si>
+    <t>737228120</t>
+  </si>
+  <si>
+    <t>L3C8-105676-1-44</t>
+  </si>
+  <si>
+    <t>106174</t>
+  </si>
+  <si>
+    <t>710204780</t>
+  </si>
+  <si>
+    <t>282869738600</t>
+  </si>
+  <si>
+    <t>421452835</t>
+  </si>
+  <si>
+    <t>L3C8-106174-1-53</t>
+  </si>
+  <si>
+    <t>105962</t>
+  </si>
+  <si>
+    <t>450312398</t>
+  </si>
+  <si>
+    <t>304869738608</t>
+  </si>
+  <si>
+    <t>421456251</t>
+  </si>
+  <si>
+    <t>L3C8-105962-1-45</t>
+  </si>
+  <si>
+    <t>94772</t>
+  </si>
+  <si>
+    <t>128599983</t>
+  </si>
+  <si>
+    <t>368969738601</t>
+  </si>
+  <si>
+    <t>421455357</t>
+  </si>
+  <si>
+    <t>L3C8-94772-1-215</t>
+  </si>
+  <si>
+    <t>105265</t>
+  </si>
+  <si>
+    <t>450312657</t>
+  </si>
+  <si>
+    <t>418869738607</t>
+  </si>
+  <si>
+    <t>421456212</t>
+  </si>
+  <si>
+    <t>L3C8-105265-1-40</t>
+  </si>
+  <si>
+    <t>46213</t>
+  </si>
+  <si>
+    <t>46212</t>
+  </si>
+  <si>
+    <t>46214</t>
+  </si>
+  <si>
+    <t>46215</t>
+  </si>
+  <si>
+    <t>46217</t>
+  </si>
+  <si>
+    <t>46216</t>
+  </si>
+  <si>
+    <t>46218</t>
   </si>
 </sst>
 </file>
@@ -999,9 +1062,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,289 +1473,282 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>295</v>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="N2" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="O2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>296</v>
       </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="N3" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="O3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>297</v>
+      <c r="C4" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="N4" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="O4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>298</v>
+      <c r="C5" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="N5" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="O5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>299</v>
+      <c r="C6" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="N6" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="O6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>300</v>
+      <c r="C7" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="N7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="O7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>301</v>
+      <c r="C8" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="N8" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="O8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>291</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="N9" t="s">
-        <v>294</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1744,14 +1802,10 @@
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="N18"/>
-      <c r="O18"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="N19"/>
-      <c r="O19"/>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
@@ -2185,18 +2239,10 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E74">
-    <cfRule dxfId="4" priority="11" type="duplicateValues"/>
+  <conditionalFormatting sqref="E2:E72">
+    <cfRule dxfId="4" priority="12" type="duplicateValues"/>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>

--- a/test data/rerate2.xlsx
+++ b/test data/rerate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theth\git\Master-GUI\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{91C55418-F2E7-4143-AE18-D595B93EFAB9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FCB705DE-9D6E-4ABA-ADD8-1BB48B914B17}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="11385" windowWidth="21600" xWindow="3810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3810"/>
+    <workbookView windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="DOMESTIC" r:id="rId1" sheetId="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="335">
   <si>
     <t>TRKNGNBR</t>
   </si>
@@ -911,9 +911,6 @@
     <t>421454960</t>
   </si>
   <si>
-    <t>L3C8-105292-1-41</t>
-  </si>
-  <si>
     <t>126610</t>
   </si>
   <si>
@@ -923,9 +920,6 @@
     <t>421453046</t>
   </si>
   <si>
-    <t>L3C8-126610-1-71</t>
-  </si>
-  <si>
     <t>105676</t>
   </si>
   <si>
@@ -938,9 +932,6 @@
     <t>737228120</t>
   </si>
   <si>
-    <t>L3C8-105676-1-44</t>
-  </si>
-  <si>
     <t>106174</t>
   </si>
   <si>
@@ -953,9 +944,6 @@
     <t>421452835</t>
   </si>
   <si>
-    <t>L3C8-106174-1-53</t>
-  </si>
-  <si>
     <t>105962</t>
   </si>
   <si>
@@ -968,9 +956,6 @@
     <t>421456251</t>
   </si>
   <si>
-    <t>L3C8-105962-1-45</t>
-  </si>
-  <si>
     <t>94772</t>
   </si>
   <si>
@@ -983,9 +968,6 @@
     <t>421455357</t>
   </si>
   <si>
-    <t>L3C8-94772-1-215</t>
-  </si>
-  <si>
     <t>105265</t>
   </si>
   <si>
@@ -998,28 +980,58 @@
     <t>421456212</t>
   </si>
   <si>
-    <t>L3C8-105265-1-40</t>
-  </si>
-  <si>
-    <t>46213</t>
-  </si>
-  <si>
-    <t>46212</t>
-  </si>
-  <si>
-    <t>46214</t>
-  </si>
-  <si>
-    <t>46215</t>
-  </si>
-  <si>
-    <t>46217</t>
-  </si>
-  <si>
-    <t>46216</t>
-  </si>
-  <si>
-    <t>46218</t>
+    <t>L3C8-105292-1-100</t>
+  </si>
+  <si>
+    <t>L3C8-126610-1-101</t>
+  </si>
+  <si>
+    <t>L3C8-105292-1-101</t>
+  </si>
+  <si>
+    <t>L3C8-126610-1-102</t>
+  </si>
+  <si>
+    <t>L3C8-105292-1-102</t>
+  </si>
+  <si>
+    <t>L3C8-126610-1-103</t>
+  </si>
+  <si>
+    <t>L3C8-105292-1-103</t>
+  </si>
+  <si>
+    <t>L3C8-126610-1-104</t>
+  </si>
+  <si>
+    <t>L3C8-105292-1-104</t>
+  </si>
+  <si>
+    <t>L3C8-126610-1-105</t>
+  </si>
+  <si>
+    <t>46243</t>
+  </si>
+  <si>
+    <t>46242</t>
+  </si>
+  <si>
+    <t>46245</t>
+  </si>
+  <si>
+    <t>46244</t>
+  </si>
+  <si>
+    <t>46246</t>
+  </si>
+  <si>
+    <t>46247</t>
+  </si>
+  <si>
+    <t>46248</t>
+  </si>
+  <si>
+    <t>46249</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1084,37 @@
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1401,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,10 +1544,10 @@
         <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="N2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O2" t="s">
         <v>175</v>
@@ -1513,7 +1555,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>288</v>
@@ -1523,11 +1565,11 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
@@ -1541,32 +1583,30 @@
         <v>13</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="N3" t="s">
-        <v>325</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4" t="s">
@@ -1580,10 +1620,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="N4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O4" t="s">
         <v>175</v>
@@ -1591,21 +1631,21 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
@@ -1619,32 +1659,30 @@
         <v>13</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="N5" t="s">
-        <v>327</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
@@ -1658,10 +1696,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="N6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O6" t="s">
         <v>175</v>
@@ -1669,21 +1707,21 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4" t="s">
@@ -1697,10 +1735,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="N7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O7" t="s">
         <v>175</v>
@@ -1708,21 +1746,21 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4" t="s">
@@ -1745,23 +1783,122 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="N10"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="N11"/>
-      <c r="O11"/>
+    <row customFormat="1" r="9" s="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="N9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" s="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N10" t="s">
+        <v>331</v>
+      </c>
+      <c r="O10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N11" t="s">
+        <v>334</v>
+      </c>
+      <c r="O11" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
@@ -2241,8 +2378,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E72">
-    <cfRule dxfId="4" priority="12" type="duplicateValues"/>
+  <conditionalFormatting sqref="E2:E8 E12:E72">
+    <cfRule dxfId="7" priority="15" type="duplicateValues"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="90" orientation="portrait" r:id="rId1" verticalDpi="90"/>
@@ -7266,7 +7412,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule dxfId="3" priority="1" type="duplicateValues"/>
+    <cfRule dxfId="6" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7295,7 +7441,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="2" priority="1" type="duplicateValues"/>
+    <cfRule dxfId="5" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -7312,10 +7458,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <conditionalFormatting sqref="E1:E100">
-    <cfRule dxfId="1" priority="2" type="duplicateValues"/>
+    <cfRule dxfId="4" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E100">
-    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
+    <cfRule dxfId="3" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
